--- a/assets/finformatika.ru/files/10-11/task_data/3/33310.xlsx
+++ b/assets/finformatika.ru/files/10-11/task_data/3/33310.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_EB92F8BECB0491B0452ED5C64586B8875D259069" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A664C9CD-6FAD-47F6-B3EB-623D488D4B5D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФГ_Информатика\1_Отчет\3-й этап\ЦОР_Решения к УП_new\Модуль 10-11\Исходные данные\3_Моделирование\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ бюджета семьи" sheetId="1" r:id="rId1"/>
@@ -18,7 +22,7 @@
     <definedName name="tab_doll">[1]Ставки_по_депозиту_в_руб_и_долл!$A$56:$J$67</definedName>
     <definedName name="tab_rub">[1]Ставки_по_депозиту_в_руб_и_долл!$A$38:$J$49</definedName>
   </definedNames>
-  <calcPr calcId="179016" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,9 +53,6 @@
   </si>
   <si>
     <t>Зарплата родителей</t>
-  </si>
-  <si>
-    <t>Арендная плата от арендаторов</t>
   </si>
   <si>
     <t>Прочие доходы</t>
@@ -92,16 +93,19 @@
   <si>
     <t>Прочие расходы</t>
   </si>
+  <si>
+    <t>Доход от сдачи в аренду жилья</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,15 +716,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,6 +750,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1957,17 +1961,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AD54"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B4" sqref="B4:B21"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="6" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="14" width="6" style="1" customWidth="1"/>
@@ -1976,24 +1980,23 @@
     <col min="28" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75"/>
-    <row r="2" spans="1:30" ht="18">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -2011,7 +2014,7 @@
       <c r="AC2"/>
       <c r="AD2"/>
     </row>
-    <row r="3" spans="1:30" ht="15">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -2029,11 +2032,11 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30" ht="38.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:30" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="18">
@@ -2089,11 +2092,11 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30" ht="15">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="39">
         <f t="shared" ref="B5:N5" si="0">SUM(B6:B9)</f>
         <v>165</v>
       </c>
@@ -2162,11 +2165,11 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <v>165</v>
       </c>
       <c r="C6" s="14"/>
@@ -2198,11 +2201,11 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:30" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="15">
         <v>160</v>
       </c>
@@ -2256,11 +2259,11 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="44"/>
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="41"/>
       <c r="C8" s="16">
         <v>15</v>
       </c>
@@ -2314,11 +2317,11 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30" ht="15">
-      <c r="A9" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="45"/>
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="42"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -2352,11 +2355,11 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:30" ht="15">
-      <c r="A10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="46"/>
+    <row r="10" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="43"/>
       <c r="C10" s="31">
         <f t="shared" ref="C10:N10" si="1">SUM(C11:C21)</f>
         <v>241</v>
@@ -2422,11 +2425,11 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:30" ht="15">
-      <c r="A11" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="43"/>
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="40"/>
       <c r="C11" s="17">
         <v>3.7</v>
       </c>
@@ -2480,11 +2483,11 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="1:30" ht="15">
-      <c r="A12" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="44"/>
+    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="41"/>
       <c r="C12" s="16">
         <v>52</v>
       </c>
@@ -2538,11 +2541,11 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="1:30" ht="15">
-      <c r="A13" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="44"/>
+    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="41"/>
       <c r="C13" s="16">
         <v>43</v>
       </c>
@@ -2584,11 +2587,11 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="1:30" ht="15">
-      <c r="A14" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="44"/>
+    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="41"/>
       <c r="C14" s="16">
         <v>2.5</v>
       </c>
@@ -2642,11 +2645,11 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="1:30" ht="15">
-      <c r="A15" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="44"/>
+    <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="16">
         <v>3</v>
       </c>
@@ -2698,11 +2701,11 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="1:30" ht="15">
-      <c r="A16" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="44"/>
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="41"/>
       <c r="C16" s="16">
         <v>25</v>
       </c>
@@ -2759,11 +2762,11 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="1:30" ht="15">
-      <c r="A17" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="44"/>
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="41"/>
       <c r="C17" s="16"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -2795,11 +2798,11 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="1:30" ht="15">
-      <c r="A18" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="44"/>
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="41"/>
       <c r="C18" s="16">
         <v>60</v>
       </c>
@@ -2847,11 +2850,11 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="1:30" ht="15">
-      <c r="A19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="44"/>
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="41"/>
       <c r="C19" s="16">
         <v>7.8</v>
       </c>
@@ -2901,11 +2904,11 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="1:30" ht="15">
-      <c r="A20" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="44"/>
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="41"/>
       <c r="C20" s="16"/>
       <c r="D20" s="10">
         <v>20</v>
@@ -2937,11 +2940,11 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="1:30" ht="15">
-      <c r="A21" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="47"/>
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="44"/>
       <c r="C21" s="25">
         <v>44</v>
       </c>
@@ -2991,7 +2994,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="1:30" ht="15">
+    <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -3009,7 +3012,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="1:30" s="3" customFormat="1" ht="14.1">
+    <row r="23" spans="1:30" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
@@ -3027,7 +3030,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="1:30" s="4" customFormat="1" ht="14.1">
+    <row r="24" spans="1:30" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
@@ -3045,7 +3048,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="1:30" s="4" customFormat="1" ht="14.1">
+    <row r="25" spans="1:30" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3077,7 +3080,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="1:30" s="6" customFormat="1" ht="14.1">
+    <row r="26" spans="1:30" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -3107,7 +3110,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="1:30" s="6" customFormat="1" ht="14.1">
+    <row r="27" spans="1:30" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -3137,7 +3140,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:30" s="6" customFormat="1" ht="14.1">
+    <row r="28" spans="1:30" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -3167,7 +3170,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="1:30" s="6" customFormat="1" ht="14.1">
+    <row r="29" spans="1:30" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -3199,7 +3202,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:30" s="6" customFormat="1" ht="14.1">
+    <row r="30" spans="1:30" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -3231,7 +3234,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="1:30" s="7" customFormat="1" ht="14.1">
+    <row r="31" spans="1:30" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -3263,7 +3266,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="1:30" s="7" customFormat="1" ht="14.1">
+    <row r="32" spans="1:30" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -3295,7 +3298,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="1:30" s="7" customFormat="1" ht="14.1">
+    <row r="33" spans="1:30" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -3327,7 +3330,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="1:30" ht="14.1">
+    <row r="34" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -3359,7 +3362,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="1:30" ht="14.1">
+    <row r="35" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3391,7 +3394,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" spans="1:30" ht="14.1">
+    <row r="36" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -3423,7 +3426,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" spans="1:30" ht="14.1">
+    <row r="37" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -3455,7 +3458,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" ht="14.1">
+    <row r="38" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3471,7 +3474,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="1:30" ht="14.1">
+    <row r="39" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3487,7 +3490,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="1:30" ht="14.1">
+    <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -3503,7 +3506,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:30" ht="14.1">
+    <row r="41" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -3519,7 +3522,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="1:30" ht="14.1">
+    <row r="42" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -3535,7 +3538,7 @@
       <c r="M42"/>
       <c r="N42"/>
     </row>
-    <row r="43" spans="1:30" ht="14.1">
+    <row r="43" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -3551,7 +3554,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:30" ht="14.1">
+    <row r="44" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -3567,7 +3570,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:30" ht="14.1">
+    <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -3583,7 +3586,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:30" ht="14.1">
+    <row r="46" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -3599,7 +3602,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:30" ht="14.1">
+    <row r="47" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3615,7 +3618,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:30" ht="14.1">
+    <row r="48" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -3631,7 +3634,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" ht="14.1">
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -3647,7 +3650,7 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:14" ht="14.1">
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3663,7 +3666,7 @@
       <c r="M50"/>
       <c r="N50"/>
     </row>
-    <row r="51" spans="1:14" ht="14.1">
+    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -3679,7 +3682,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="52" spans="1:14" ht="14.1">
+    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3695,7 +3698,7 @@
       <c r="M52"/>
       <c r="N52"/>
     </row>
-    <row r="53" spans="1:14" ht="14.1">
+    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3711,7 +3714,7 @@
       <c r="M53"/>
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:14" ht="14.1">
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
